--- a/Contenu_DatatypeBL/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/Contenu_DatatypeBL/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T15:18:59+00:00</t>
+    <t>2025-02-13T09:58:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
